--- a/Catalogo de proveedores.xlsx
+++ b/Catalogo de proveedores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>100</t>
   </si>
@@ -125,12 +125,6 @@
     <t>RFC</t>
   </si>
   <si>
-    <t>VAVY910709LNA</t>
-  </si>
-  <si>
-    <t>PROV100</t>
-  </si>
-  <si>
     <t>MI PROVEEDOR DE PRUEBA</t>
   </si>
   <si>
@@ -138,6 +132,18 @@
   </si>
   <si>
     <t>PROV</t>
+  </si>
+  <si>
+    <t>PROV201</t>
+  </si>
+  <si>
+    <t>PROV2O2</t>
+  </si>
+  <si>
+    <t>VAVY910709LLL</t>
+  </si>
+  <si>
+    <t>VAVY910709KKK</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -211,9 +217,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,7 +517,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -539,7 +542,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -589,16 +592,16 @@
     </row>
     <row r="2" spans="1:17" ht="30">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="4">
         <v>331040004</v>
@@ -640,16 +643,63 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:17" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4">
+        <v>331040004</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="Q3" s="3"/>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="2"/>
@@ -658,6 +708,8 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="P2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="P3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
